--- a/final_dataset(1⁄0).xlsx
+++ b/final_dataset(1⁄0).xlsx
@@ -4,81 +4,48 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="36" windowWidth="16212" windowHeight="5808"/>
+    <workbookView xWindow="96" yWindow="36" windowWidth="16212" windowHeight="5856"/>
   </bookViews>
   <sheets>
     <sheet name="diseasedet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Disease</t>
   </si>
   <si>
-    <t>Symptoms</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
     <t>Common Cold</t>
   </si>
   <si>
-    <t>sore throat,cough,stuffy nose,sneezing</t>
-  </si>
-  <si>
     <t xml:space="preserve">Whooping Cough </t>
   </si>
   <si>
-    <t>Mild coughing. Sneezing. Runny nose. Low fever (below 102 F)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Typhoid </t>
   </si>
   <si>
-    <t>Poor appetite,headaches,pain in body</t>
-  </si>
-  <si>
     <t>Cholera</t>
   </si>
   <si>
-    <t>Nausea and Vomitting</t>
-  </si>
-  <si>
     <t>TuberClosis</t>
   </si>
   <si>
-    <t>Chest pain, or pain with breathing or coughing,unintentional weight loss, fatigue,fever, night sweats, chills.</t>
-  </si>
-  <si>
     <t>Athritis</t>
   </si>
   <si>
-    <t>swelling,redness,stiffness</t>
-  </si>
-  <si>
     <t>Tonsilitis</t>
   </si>
   <si>
-    <t>sore throat,swollen tonsils</t>
-  </si>
-  <si>
     <t>Malaria</t>
   </si>
   <si>
-    <t>high fever. profuse sweating. headache. nausea. vomiting. abdominal pain. diarrhea.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Heart Attack </t>
   </si>
   <si>
-    <t>chest pain,shortness of breath</t>
-  </si>
-  <si>
     <t>Measles</t>
   </si>
   <si>
@@ -88,109 +55,166 @@
     <t>Pneumonia</t>
   </si>
   <si>
-    <t>cough,confusion,yellow or bloody mucus,shortness of breath,high pr mild fever</t>
-  </si>
-  <si>
     <t>Dengue</t>
   </si>
   <si>
-    <t>Severe joint and muscle pain, fatigue. Nausea. Vomiting. Skin rash, fever.</t>
-  </si>
-  <si>
     <t>Kidney Stone</t>
   </si>
   <si>
-    <t>pain in side or back and  lower abdomen,pink  red or brown urine,nausea and vomiting</t>
-  </si>
-  <si>
     <t>Diabetes</t>
   </si>
   <si>
-    <t>increased thirst and hunger, frequent urination. blurred vision. wounds that heal slowly, skin infections.</t>
-  </si>
-  <si>
     <t>Lung Cancer</t>
   </si>
   <si>
-    <t>Pain in the chest, shoulder, or back unrelated to pain from coughing,shortness of breath</t>
-  </si>
-  <si>
     <t>Stroke</t>
   </si>
   <si>
-    <t>Sudden numbness or weakness of face, arm or leg, sudden trouble seeing in one or Both eyes.</t>
-  </si>
-  <si>
     <t>COPD</t>
   </si>
   <si>
-    <t>Chest Tightness,Shortness of breath,sputum,wheezing</t>
-  </si>
-  <si>
     <t>HIV</t>
   </si>
   <si>
-    <t xml:space="preserve"> persistent diarrhea, chronic fatigue, cough and shortness of breath, recurring fever, night sweats. rashes, sores  in the mouth or nose, on the genitals, or under the skin</t>
-  </si>
-  <si>
     <t>Rhinitis</t>
   </si>
   <si>
-    <t>sneezing. a runny nose, a stuffy nose,an itchy nose, coughing, a sore or scratchy throat, itchy eyes,watery eyes.</t>
-  </si>
-  <si>
     <t>Dermatitis</t>
   </si>
   <si>
-    <t>dry, scaly, flaky skin, hives,oozing blisters, skin redness,itchy rashes.</t>
-  </si>
-  <si>
     <t>Asthma</t>
   </si>
   <si>
-    <t>coughing, wheezing, shortness of breath and tightness in the chest.</t>
-  </si>
-  <si>
     <t>Epilepsy</t>
   </si>
   <si>
-    <t>Uncontrollable jerking movements of the arms and legs, Loss of consciousness or awareness</t>
-  </si>
-  <si>
     <t>Swine flu</t>
   </si>
   <si>
-    <t>Cough. Fever,Sore throat, Stuffy or runny nose,Body aches,Headache, Fatigue.</t>
-  </si>
-  <si>
     <t>Rabies</t>
   </si>
   <si>
-    <t xml:space="preserve"> pain, swelling, or itching at the injection site, headache, nausea, stomach pain,muscle aches, dizziness.</t>
-  </si>
-  <si>
     <t>Chicken Pox</t>
   </si>
   <si>
-    <t>feeling sick. a headache. aching, painful muscles. loss of appetite,high fever</t>
-  </si>
-  <si>
-    <t>cough. Fever, red eyes, light sensitivity. muscle aches,neck Swelling,sore throat.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> blood in stool or urine, nonhealing sores,weight loss</t>
-  </si>
-  <si>
     <t>Jaundice</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fatigue. Abdominal pain, Weight loss, Vomiting. Fever,yellowish eye  and body  </t>
-  </si>
-  <si>
     <t>Migraine</t>
   </si>
   <si>
-    <t xml:space="preserve"> Head  Pain that feels throbbing or pulsing,Lightheadness followed by fainting, Sensitivity to light, sounds and sometimes smells and touch, Nausea and vomiting, Blurred vision. </t>
+    <t>sneezing</t>
+  </si>
+  <si>
+    <t>bloody stool/urine</t>
+  </si>
+  <si>
+    <t>shortness of breath</t>
+  </si>
+  <si>
+    <t>muscle pain</t>
+  </si>
+  <si>
+    <t>sensitivity to light</t>
+  </si>
+  <si>
+    <t>sputum</t>
+  </si>
+  <si>
+    <t>Dizziness</t>
+  </si>
+  <si>
+    <t>Abdominal Pain</t>
+  </si>
+  <si>
+    <t>Wheezing</t>
+  </si>
+  <si>
+    <t>Swolllen Tonsils</t>
+  </si>
+  <si>
+    <t>Stiffness</t>
+  </si>
+  <si>
+    <t>Night Sweat</t>
+  </si>
+  <si>
+    <t>Pain in body</t>
+  </si>
+  <si>
+    <t>Runny Nose</t>
+  </si>
+  <si>
+    <t>Cough</t>
+  </si>
+  <si>
+    <t>Sore Thrroat</t>
+  </si>
+  <si>
+    <t>Stuffy Nose</t>
+  </si>
+  <si>
+    <t>Fever</t>
+  </si>
+  <si>
+    <t>Headache</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nausea </t>
+  </si>
+  <si>
+    <t>Vomitting</t>
+  </si>
+  <si>
+    <t>Chest Pain</t>
+  </si>
+  <si>
+    <t>Red Eyes</t>
+  </si>
+  <si>
+    <t>Swelling</t>
+  </si>
+  <si>
+    <t>Chest Tightness</t>
+  </si>
+  <si>
+    <t>Frequent Urination</t>
+  </si>
+  <si>
+    <t>Throbbing/pulsing</t>
+  </si>
+  <si>
+    <t>Fatigue</t>
+  </si>
+  <si>
+    <t>Yellowish Eye</t>
+  </si>
+  <si>
+    <t>Jerking of limbs</t>
+  </si>
+  <si>
+    <t>Fainting</t>
+  </si>
+  <si>
+    <t>Skin infections</t>
+  </si>
+  <si>
+    <t>Blurred vision</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Pain in back/ribs/muscles</t>
+  </si>
+  <si>
+    <t>Pain while Urination</t>
+  </si>
+  <si>
+    <t>Thirst</t>
+  </si>
+  <si>
+    <t>Dry/flaky skin</t>
   </si>
 </sst>
 </file>
@@ -675,12 +699,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1016,262 +1041,3802 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:AQ29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AQ30" sqref="AQ30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="42" max="44" width="11.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:43">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" t="s">
+        <v>56</v>
+      </c>
+      <c r="V1" t="s">
+        <v>57</v>
+      </c>
+      <c r="W1" t="s">
+        <v>58</v>
+      </c>
+      <c r="X1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>1</v>
+      </c>
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="2">
+        <v>43064</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="2">
+        <v>42680</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="4" spans="1:43">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="2">
+        <v>42528</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>35</v>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="2">
+        <v>42132</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+    <row r="6" spans="1:43">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="2">
+        <v>42337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="2">
+        <v>42338</v>
+      </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+    <row r="8" spans="1:43">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>1</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="2">
+        <v>42339</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="2">
+        <v>42776</v>
+      </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+    <row r="10" spans="1:43">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="2">
+        <v>42349</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>1</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="2">
+        <v>42625</v>
+      </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+    <row r="12" spans="1:43">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="2">
+        <v>42351</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>1</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="2">
+        <v>42352</v>
+      </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+    <row r="14" spans="1:43">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="2">
+        <v>42015</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="2">
+        <v>42293</v>
+      </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+    <row r="16" spans="1:43">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16">
+        <v>1</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="2">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>1</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="2">
+        <v>42356</v>
+      </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+    <row r="18" spans="1:43">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="2">
+        <v>43088</v>
+      </c>
+    </row>
+    <row r="19" spans="1:43">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>1</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="2">
+        <v>42742</v>
+      </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+    <row r="20" spans="1:43">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="2">
+        <v>42725</v>
+      </c>
+    </row>
+    <row r="21" spans="1:43">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="2">
+        <v>41995</v>
+      </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+    <row r="22" spans="1:43">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>53</v>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>1</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AM22">
+        <v>1</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="2">
+        <v>42646</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+    <row r="23" spans="1:43">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
-        <v>54</v>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>1</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>1</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="2">
+        <v>43091</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+    <row r="24" spans="1:43">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AQ24" s="2">
+        <v>41968</v>
+      </c>
+    </row>
+    <row r="25" spans="1:43">
+      <c r="A25" t="s">
         <v>24</v>
       </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>1</v>
+      </c>
+      <c r="AC25">
+        <v>1</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="2">
+        <v>41979</v>
+      </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+    <row r="26" spans="1:43">
+      <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>1</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="2">
+        <v>42731</v>
+      </c>
+    </row>
+    <row r="27" spans="1:43">
+      <c r="A27" t="s">
         <v>26</v>
       </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="2">
+        <v>42316</v>
+      </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="28" spans="1:43">
+      <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>1</v>
+      </c>
+      <c r="V28">
+        <v>1</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>1</v>
+      </c>
+      <c r="AJ28">
+        <v>1</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="2">
+        <v>42072</v>
+      </c>
+    </row>
+    <row r="29" spans="1:43">
+      <c r="A29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>58</v>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>1</v>
+      </c>
+      <c r="Y29">
+        <v>1</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="3">
+        <v>42459</v>
       </c>
     </row>
   </sheetData>
